--- a/data/trans_orig/P64D$andando_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>98428</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80821</v>
+        <v>81021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116103</v>
+        <v>118280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2642260338482811</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2169586015070268</v>
+        <v>0.2174969974715173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3116726112669989</v>
+        <v>0.3175170465864746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -762,19 +762,19 @@
         <v>104017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90599</v>
+        <v>89786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119466</v>
+        <v>119309</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3169006657600182</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.276021803552152</v>
+        <v>0.2735436283528691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3639673440561378</v>
+        <v>0.3634904919423813</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>241</v>
@@ -783,19 +783,19 @@
         <v>202445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179322</v>
+        <v>180479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226132</v>
+        <v>227924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2888989560303747</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2559011465426813</v>
+        <v>0.2575524584428753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3227015835215303</v>
+        <v>0.3252580492721791</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5798</v>
+        <v>6031</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19819</v>
+        <v>21357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03041185981651848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01556415403759769</v>
+        <v>0.01619016611670888</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05320316851495008</v>
+        <v>0.05733071817590989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4734</v>
+        <v>5590</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.004445791925742968</v>
+        <v>0.004445791925742969</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01442258501793238</v>
+        <v>0.01703125320939488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -854,19 +854,19 @@
         <v>12788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7212</v>
+        <v>7289</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21490</v>
+        <v>21597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01824929219729776</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01029223897089874</v>
+        <v>0.01040150846440286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03066726069910986</v>
+        <v>0.03082041018201954</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>34418</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23436</v>
+        <v>22658</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51066</v>
+        <v>49771</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09239271995019904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0629137026348925</v>
+        <v>0.06082443819404116</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1370849578199181</v>
+        <v>0.1336064496824104</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -904,19 +904,19 @@
         <v>18027</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11739</v>
+        <v>11247</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27220</v>
+        <v>27458</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05492023680463128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03576424311769651</v>
+        <v>0.03426589658738113</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.082929602292534</v>
+        <v>0.08365304368837005</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -925,19 +925,19 @@
         <v>52444</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38707</v>
+        <v>37927</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68972</v>
+        <v>68649</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07484052020878239</v>
+        <v>0.0748405202087824</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05523716818320219</v>
+        <v>0.0541237868734019</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09842637001744926</v>
+        <v>0.09796475719124068</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>5422</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1344</v>
+        <v>1402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13215</v>
+        <v>13531</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01455495288257892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003607029821173093</v>
+        <v>0.003762793234700546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03547506046856953</v>
+        <v>0.03632251157398081</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7456</v>
+        <v>7423</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.004517249879668528</v>
+        <v>0.004517249879668529</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0227142711226751</v>
+        <v>0.02261526051592856</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -996,19 +996,19 @@
         <v>6905</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2638</v>
+        <v>2705</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14435</v>
+        <v>15443</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.009853269053202385</v>
+        <v>0.009853269053202383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00376481512153116</v>
+        <v>0.003859580695426664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02059971304137297</v>
+        <v>0.02203824913198716</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>243937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>223027</v>
+        <v>222649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>262616</v>
+        <v>264061</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6548367981169811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5987036476142233</v>
+        <v>0.5976908573684546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7049777957015381</v>
+        <v>0.7088585744988476</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -1046,19 +1046,19 @@
         <v>221946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>206631</v>
+        <v>204754</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>235890</v>
+        <v>235333</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6761860439534033</v>
+        <v>0.6761860439534034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6295268138655037</v>
+        <v>0.623808445921496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7186686934109158</v>
+        <v>0.7169716041185733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>514</v>
@@ -1067,19 +1067,19 @@
         <v>465883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>438998</v>
+        <v>440499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>489217</v>
+        <v>490001</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6648368353654818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6264700784462468</v>
+        <v>0.6286121105151975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6981352648628988</v>
+        <v>0.6992544179305097</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>26715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17109</v>
+        <v>16711</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39950</v>
+        <v>38653</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07171507590798057</v>
+        <v>0.07171507590798058</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04592862826667766</v>
+        <v>0.04486070180477844</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1072445473474341</v>
+        <v>0.1037630290466769</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>42</v>
@@ -1117,19 +1117,19 @@
         <v>33247</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24379</v>
+        <v>24334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43836</v>
+        <v>43561</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1012924289749725</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07427396511732225</v>
+        <v>0.0741368202597337</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1335527858733014</v>
+        <v>0.1327136264043171</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>64</v>
@@ -1138,19 +1138,19 @@
         <v>59962</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47388</v>
+        <v>46505</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75403</v>
+        <v>76965</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08556917804574213</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06762502680128474</v>
+        <v>0.06636532077234979</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1076041648204096</v>
+        <v>0.1098324128571973</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>64656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51001</v>
+        <v>51167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81218</v>
+        <v>79970</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2035764446434183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1605827048765668</v>
+        <v>0.1611047664815902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2557248467100964</v>
+        <v>0.2517953516841528</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -1192,19 +1192,19 @@
         <v>85233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72255</v>
+        <v>71770</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>99346</v>
+        <v>99608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3143908767492501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2665198301541122</v>
+        <v>0.2647317689035378</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3664474031088242</v>
+        <v>0.3674159724857215</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -1213,19 +1213,19 @@
         <v>149889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128390</v>
+        <v>129719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173219</v>
+        <v>170093</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2546077841152715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2180895926501215</v>
+        <v>0.2203459283232578</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2942376547804159</v>
+        <v>0.2889284077328881</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>5408</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1802</v>
+        <v>1826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14923</v>
+        <v>14783</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01702869150877196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00567429810679755</v>
+        <v>0.005749792895032212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04698633687643172</v>
+        <v>0.04654639164780416</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1263,19 +1263,19 @@
         <v>4778</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1649</v>
+        <v>1869</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10069</v>
+        <v>10082</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01762464738685782</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006082817541939053</v>
+        <v>0.006893116139081187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03713969840609155</v>
+        <v>0.03718940917246835</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1284,19 +1284,19 @@
         <v>10186</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5306</v>
+        <v>4726</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20208</v>
+        <v>20457</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01730313614695592</v>
+        <v>0.01730313614695591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009012583411788363</v>
+        <v>0.008027223539302682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0343257010163311</v>
+        <v>0.03474861917134173</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>23577</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13992</v>
+        <v>14389</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37643</v>
+        <v>37479</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07423363577045494</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04405693655073017</v>
+        <v>0.04530434989034726</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1185252420428515</v>
+        <v>0.118008655207887</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -1334,19 +1334,19 @@
         <v>20532</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13351</v>
+        <v>13878</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29897</v>
+        <v>30301</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07573487222424032</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04924681287427235</v>
+        <v>0.05118977833466379</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.110278198186094</v>
+        <v>0.1117681361579086</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -1355,19 +1355,19 @@
         <v>44109</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31213</v>
+        <v>31794</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59183</v>
+        <v>61649</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07492497268068227</v>
+        <v>0.07492497268068225</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05302028574926369</v>
+        <v>0.05400624221464332</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1005309271962812</v>
+        <v>0.1047196743622058</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4726</v>
+        <v>4241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002727608440265096</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01488053614145187</v>
+        <v>0.01335237065400746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8870</v>
+        <v>7948</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007931709876261657</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03271619634427111</v>
+        <v>0.02931825502279397</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1426,19 +1426,19 @@
         <v>3017</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>706</v>
+        <v>849</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9376</v>
+        <v>9508</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005124157896681279</v>
+        <v>0.005124157896681278</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001199268641738802</v>
+        <v>0.001442791288471972</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01592643471749315</v>
+        <v>0.01615120248969008</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>229895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>210562</v>
+        <v>210795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>246052</v>
+        <v>245897</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7238539668833308</v>
+        <v>0.7238539668833309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6629800767300635</v>
+        <v>0.6637142017605163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7747240437947988</v>
+        <v>0.7742376222244342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>230</v>
@@ -1476,19 +1476,19 @@
         <v>171040</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157459</v>
+        <v>156070</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>185341</v>
+        <v>185221</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6309000845785868</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5808031937234862</v>
+        <v>0.5756825956664252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6836492461147861</v>
+        <v>0.6832072026765373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>426</v>
@@ -1497,19 +1497,19 @@
         <v>400935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>375749</v>
+        <v>376412</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>422685</v>
+        <v>422027</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6810476190730583</v>
+        <v>0.6810476190730581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6382640620664064</v>
+        <v>0.6393913685390396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7179919829529061</v>
+        <v>0.7168740182800907</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>26637</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18081</v>
+        <v>17586</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38484</v>
+        <v>37834</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08387097369117352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05692976224249369</v>
+        <v>0.05537096963986439</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1211729392630782</v>
+        <v>0.1191235539005705</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>34</v>
@@ -1547,19 +1547,19 @@
         <v>28017</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19432</v>
+        <v>19783</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39030</v>
+        <v>38625</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1033432452868248</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07167725765033077</v>
+        <v>0.07297276441376933</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1439648004908715</v>
+        <v>0.1424708388664134</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>59</v>
@@ -1568,19 +1568,19 @@
         <v>54654</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>42168</v>
+        <v>40975</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>70336</v>
+        <v>69189</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09283818205205552</v>
+        <v>0.0928381820520555</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07162824953886947</v>
+        <v>0.06960150604711821</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1194768390232996</v>
+        <v>0.1175284696657732</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>66786</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52404</v>
+        <v>53301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82594</v>
+        <v>83375</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2486499522742683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1951058825260768</v>
+        <v>0.1984425656052109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3075054179799657</v>
+        <v>0.3104124068898801</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1622,19 +1622,19 @@
         <v>37869</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30204</v>
+        <v>30480</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45558</v>
+        <v>45222</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4635622664324373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3697319404026002</v>
+        <v>0.373114025429055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5576900276350724</v>
+        <v>0.5535714217945737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -1643,19 +1643,19 @@
         <v>104655</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88234</v>
+        <v>88207</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123671</v>
+        <v>124138</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2987701473160995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2518912723547668</v>
+        <v>0.25181339306691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3530561582240346</v>
+        <v>0.3543906047349322</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>5693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1827</v>
+        <v>1216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15123</v>
+        <v>15978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02119387750210194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006801824241079826</v>
+        <v>0.004527215982469809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05630363502646712</v>
+        <v>0.05948662123070399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4329</v>
+        <v>4778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01713882017281481</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0529896780172673</v>
+        <v>0.05849237416371585</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1714,19 +1714,19 @@
         <v>7093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2713</v>
+        <v>2544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17461</v>
+        <v>16811</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02024818825648663</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007745672836341745</v>
+        <v>0.007263203322117076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04984809926769922</v>
+        <v>0.0479916129742447</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>7900</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3278</v>
+        <v>3125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15274</v>
+        <v>15734</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02941361972826314</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01220290038159651</v>
+        <v>0.01163362294094056</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05686747157753735</v>
+        <v>0.0585793131359874</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1764,19 +1764,19 @@
         <v>8256</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4619</v>
+        <v>4559</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14405</v>
+        <v>13986</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1010587757361504</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05654288441895308</v>
+        <v>0.05580195973657125</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1763334529975126</v>
+        <v>0.1712108230147312</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1785,19 +1785,19 @@
         <v>16156</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9792</v>
+        <v>9859</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24877</v>
+        <v>25686</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04612215133094721</v>
+        <v>0.0461221513309472</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02795315639015853</v>
+        <v>0.02814465721533169</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07102027536435242</v>
+        <v>0.07332733644465646</v>
       </c>
     </row>
     <row r="19">
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9125</v>
+        <v>6946</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004732012979691422</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03397201959272936</v>
+        <v>0.02586046268110434</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7587</v>
+        <v>7013</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003628449349977484</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02166012542696829</v>
+        <v>0.02002021664047061</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>201906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>185627</v>
+        <v>185997</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>218563</v>
+        <v>215886</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7517126646251003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6911046643344809</v>
+        <v>0.6924812996374125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8137258525130969</v>
+        <v>0.8037600915311</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -1898,19 +1898,19 @@
         <v>40910</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33034</v>
+        <v>33221</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48805</v>
+        <v>49831</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5007873691086627</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4043792113896355</v>
+        <v>0.4066716912013605</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5974290356000473</v>
+        <v>0.6099988388573051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>234</v>
@@ -1919,19 +1919,19 @@
         <v>242816</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>223836</v>
+        <v>224082</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>259554</v>
+        <v>259723</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6931937993777738</v>
+        <v>0.6931937993777737</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6390088741973077</v>
+        <v>0.6397108907621006</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7409780729591859</v>
+        <v>0.7414601234767867</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>17781</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10398</v>
+        <v>9378</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30360</v>
+        <v>28580</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06619951524138035</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03871225698060963</v>
+        <v>0.03491496522584261</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1130326458924007</v>
+        <v>0.1064060891202381</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1969,19 +1969,19 @@
         <v>2083</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5380</v>
+        <v>5765</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02549925757823225</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008049434551394863</v>
+        <v>0.008181978100911001</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06586083513670234</v>
+        <v>0.07057538801648257</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -1990,19 +1990,19 @@
         <v>19864</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11660</v>
+        <v>11361</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31426</v>
+        <v>33043</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05670771454898978</v>
+        <v>0.05670771454898976</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03328643971381755</v>
+        <v>0.03243210457267156</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08971402384431931</v>
+        <v>0.09433081406379597</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>150221</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127358</v>
+        <v>127891</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>176351</v>
+        <v>177171</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2439862683706599</v>
+        <v>0.24398626837066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2068514818260685</v>
+        <v>0.2077185295708327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2864260220399303</v>
+        <v>0.2877579854816575</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -2044,19 +2044,19 @@
         <v>190225</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>170978</v>
+        <v>170503</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>211344</v>
+        <v>208351</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.401255848739888</v>
+        <v>0.4012558487398881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3606571927053733</v>
+        <v>0.3596549894331995</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4458038064297083</v>
+        <v>0.4394904159703802</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>386</v>
@@ -2065,19 +2065,19 @@
         <v>340446</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>310663</v>
+        <v>310064</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>374388</v>
+        <v>374380</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3124018937736134</v>
+        <v>0.3124018937736135</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2850723827455939</v>
+        <v>0.2845227575155509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3435476766486963</v>
+        <v>0.3435410767120407</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>5833</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2211</v>
+        <v>2120</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14204</v>
+        <v>12420</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00947331537457358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003591168098839818</v>
+        <v>0.003443586155081948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02306926749666046</v>
+        <v>0.0201714933374513</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2118,16 +2118,16 @@
         <v>875</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8969</v>
+        <v>8542</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.006836339738974483</v>
+        <v>0.006836339738974484</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00184646764747565</v>
+        <v>0.001846426177203463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01891861296613362</v>
+        <v>0.01801887750909721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -2136,19 +2136,19 @@
         <v>9074</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4531</v>
+        <v>4158</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16992</v>
+        <v>16548</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.008326174669687698</v>
+        <v>0.0083261746696877</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004157420323262466</v>
+        <v>0.003815115783003815</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01559206023771057</v>
+        <v>0.01518506849279253</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>12664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6442</v>
+        <v>6555</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21919</v>
+        <v>22101</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02056914684286897</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01046371076480677</v>
+        <v>0.01064722241300887</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03560054541325201</v>
+        <v>0.03589557296686609</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -2186,19 +2186,19 @@
         <v>9909</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5888</v>
+        <v>5419</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16283</v>
+        <v>16265</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02090213815009798</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0124203705600873</v>
+        <v>0.01143064450702938</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03434729767030373</v>
+        <v>0.03430880068307768</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -2207,19 +2207,19 @@
         <v>22573</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15090</v>
+        <v>14429</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33292</v>
+        <v>33706</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02071400517137938</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01384715681361104</v>
+        <v>0.01324073107443885</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03054962613016092</v>
+        <v>0.03092981614111029</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>7531</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3082</v>
+        <v>3229</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14776</v>
+        <v>16313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0122317939459464</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005005204914899026</v>
+        <v>0.005244422144311595</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02399928246479121</v>
+        <v>0.02649512992714557</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2257,19 +2257,19 @@
         <v>7276</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2855</v>
+        <v>3022</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15763</v>
+        <v>16747</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01534687434526946</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006022516300507594</v>
+        <v>0.00637384288461012</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03324912503469239</v>
+        <v>0.03532538788426406</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2278,19 +2278,19 @@
         <v>14807</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8021</v>
+        <v>8150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25799</v>
+        <v>24599</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01358692043130879</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007360006360461007</v>
+        <v>0.007478854915239907</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02367388430181755</v>
+        <v>0.02257274407868069</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>461448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>435990</v>
+        <v>433354</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>485338</v>
+        <v>483808</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7494731988398783</v>
+        <v>0.7494731988398782</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7081254993149771</v>
+        <v>0.7038437848440511</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7882753241303984</v>
+        <v>0.7857904289981125</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>378</v>
@@ -2328,19 +2328,19 @@
         <v>275787</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>257070</v>
+        <v>255695</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>294562</v>
+        <v>295604</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5817387528646633</v>
+        <v>0.5817387528646634</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.54225876479948</v>
+        <v>0.539357634488257</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.621342714900958</v>
+        <v>0.6235416265432222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>785</v>
@@ -2349,19 +2349,19 @@
         <v>737234</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>701683</v>
+        <v>702638</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>770323</v>
+        <v>768765</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.676505133457683</v>
+        <v>0.6765051334576831</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6438823616574901</v>
+        <v>0.644758298132751</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7068683802319965</v>
+        <v>0.7054387414097478</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>53374</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>38877</v>
+        <v>39237</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>72810</v>
+        <v>73218</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0866893607029384</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06314316674515519</v>
+        <v>0.06372818665582801</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1182568977078785</v>
+        <v>0.1189195448142776</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>59</v>
@@ -2399,19 +2399,19 @@
         <v>54940</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>42231</v>
+        <v>42048</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>68939</v>
+        <v>69599</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1158893504583551</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08908047496055455</v>
+        <v>0.08869504758426572</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1454194042382455</v>
+        <v>0.1468108640968178</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>101</v>
@@ -2420,19 +2420,19 @@
         <v>108314</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>86534</v>
+        <v>87412</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>130260</v>
+        <v>130587</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.0993919797102919</v>
+        <v>0.09939197971029193</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07940625708178189</v>
+        <v>0.08021150123633</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.119529546980337</v>
+        <v>0.1198297592938927</v>
       </c>
     </row>
     <row r="28">
@@ -2453,19 +2453,19 @@
         <v>43487</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31108</v>
+        <v>30121</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60348</v>
+        <v>58940</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1420370164240585</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.101604660466551</v>
+        <v>0.09837990271349668</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1971076674118906</v>
+        <v>0.1925101508174086</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>158</v>
@@ -2474,19 +2474,19 @@
         <v>113666</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>99017</v>
+        <v>99399</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>130580</v>
+        <v>130887</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3702972363244807</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3225730100999876</v>
+        <v>0.3238178737647376</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4253959623896266</v>
+        <v>0.4263965986782094</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>193</v>
@@ -2495,19 +2495,19 @@
         <v>157154</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>133890</v>
+        <v>136279</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>180099</v>
+        <v>180362</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2563148858401267</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2183725868833466</v>
+        <v>0.2222692314937557</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2937378200350614</v>
+        <v>0.2941670165941151</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>9011</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2128</v>
+        <v>2116</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25297</v>
+        <v>27186</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02943194594117007</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006950044167210798</v>
+        <v>0.006909698863534549</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08262545815364328</v>
+        <v>0.0887948402236392</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2545,19 +2545,19 @@
         <v>2382</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7491</v>
+        <v>6648</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007760254388716561</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002298155172180022</v>
+        <v>0.002301718426509628</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02440508439462078</v>
+        <v>0.02165623998270929</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2566,19 +2566,19 @@
         <v>11393</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3978</v>
+        <v>3787</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29352</v>
+        <v>30103</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01858207144995562</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006487344849588601</v>
+        <v>0.006176113906468148</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04787272381939115</v>
+        <v>0.04909815361370005</v>
       </c>
     </row>
     <row r="30">
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8071</v>
+        <v>7699</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006888098532961603</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02636297655988961</v>
+        <v>0.02514754269243475</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2616,19 +2616,19 @@
         <v>3302</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>727</v>
+        <v>1301</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7931</v>
+        <v>9357</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01075580184169708</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002369508796126696</v>
+        <v>0.004239174797271169</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02583746470129527</v>
+        <v>0.03048261636087515</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -2637,19 +2637,19 @@
         <v>5411</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2043</v>
+        <v>1981</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11854</v>
+        <v>11637</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008824453863945626</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003331388330974504</v>
+        <v>0.003230983831759754</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01933447870493268</v>
+        <v>0.01898032677802119</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>4636</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1578</v>
+        <v>1159</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12714</v>
+        <v>12661</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01514323644590093</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.005152490584375178</v>
+        <v>0.00378486550476915</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04152582906813684</v>
+        <v>0.0413548660815022</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4376</v>
+        <v>4137</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004364324865121618</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01425554384025989</v>
+        <v>0.01347883527039128</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -2708,19 +2708,19 @@
         <v>5976</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2506</v>
+        <v>2095</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14160</v>
+        <v>12625</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.009746803153174723</v>
+        <v>0.009746803153174721</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004087850097428542</v>
+        <v>0.003416871142268239</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02309434249273921</v>
+        <v>0.02059149837587232</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>240704</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>220837</v>
+        <v>220491</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>255376</v>
+        <v>256325</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7861867305169764</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7212947154718161</v>
+        <v>0.7201659790223088</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8341056246563472</v>
+        <v>0.837205011131962</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>260</v>
@@ -2758,19 +2758,19 @@
         <v>186190</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>170599</v>
+        <v>170337</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>202367</v>
+        <v>201661</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6065595497132016</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5557693216866787</v>
+        <v>0.5549171781880515</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.659260328818341</v>
+        <v>0.6569629761859748</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>460</v>
@@ -2779,19 +2779,19 @@
         <v>426894</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>401711</v>
+        <v>401544</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>449138</v>
+        <v>448909</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6962568622270691</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6551848118392438</v>
+        <v>0.6549108349559819</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.732536776042522</v>
+        <v>0.7321630281672461</v>
       </c>
     </row>
     <row r="33">
@@ -2808,19 +2808,19 @@
         <v>28861</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>18904</v>
+        <v>19056</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>41302</v>
+        <v>41913</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09426521937644779</v>
+        <v>0.09426521937644777</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0617438314974283</v>
+        <v>0.06224165951420971</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1348988154074036</v>
+        <v>0.1368952222851709</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>63</v>
@@ -2829,19 +2829,19 @@
         <v>49135</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>38361</v>
+        <v>39470</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>61348</v>
+        <v>61974</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1600701712757903</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1249719528591783</v>
+        <v>0.1285836924826568</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1998576521231382</v>
+        <v>0.2018968126894563</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>88</v>
@@ -2850,19 +2850,19 @@
         <v>77996</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>63729</v>
+        <v>62360</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>95911</v>
+        <v>95595</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1272102927815479</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1039402945144076</v>
+        <v>0.1017075703684283</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1564296460208927</v>
+        <v>0.1559135759002827</v>
       </c>
     </row>
     <row r="34">
@@ -2883,19 +2883,19 @@
         <v>423579</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>386163</v>
+        <v>380572</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>462858</v>
+        <v>463344</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2252391636983563</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2053432105356274</v>
+        <v>0.2023699758894282</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2461260690304237</v>
+        <v>0.2463844452411358</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>739</v>
@@ -2904,19 +2904,19 @@
         <v>531010</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>497215</v>
+        <v>500878</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>563306</v>
+        <v>563941</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3631926153940992</v>
+        <v>0.3631926153940991</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3400783417174403</v>
+        <v>0.3425832036635907</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3852823484839125</v>
+        <v>0.3857165119303997</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1119</v>
@@ -2925,19 +2925,19 @@
         <v>954588</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>905375</v>
+        <v>900904</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1008166</v>
+        <v>1006534</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2855797165470159</v>
+        <v>0.2855797165470158</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2708567676731776</v>
+        <v>0.2695192664469186</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3016082912507132</v>
+        <v>0.3011198933518892</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>37274</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25463</v>
+        <v>25146</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>59763</v>
+        <v>58777</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01982030827670523</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01354014985417138</v>
+        <v>0.01337149840329878</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03177914155295317</v>
+        <v>0.03125471733710036</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -2975,19 +2975,19 @@
         <v>13260</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7627</v>
+        <v>7779</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20402</v>
+        <v>20881</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009069718284926949</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005216537572168706</v>
+        <v>0.005320793025350438</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01395456066079143</v>
+        <v>0.01428178228969474</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -2996,19 +2996,19 @@
         <v>50534</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>35496</v>
+        <v>35673</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>72724</v>
+        <v>72651</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01511802257396057</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01061914616479965</v>
+        <v>0.0106721954395684</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.021756548927098</v>
+        <v>0.02173472388855118</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>80668</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>61269</v>
+        <v>63178</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>101330</v>
+        <v>103889</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04289537620740495</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03258021117515311</v>
+        <v>0.03359518872948155</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05388269490556776</v>
+        <v>0.05524305105150455</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>80</v>
@@ -3046,19 +3046,19 @@
         <v>60025</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>48371</v>
+        <v>46750</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>75230</v>
+        <v>72532</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.04105506573619388</v>
+        <v>0.04105506573619387</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0330842244969617</v>
+        <v>0.03197554684842702</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05145462263665682</v>
+        <v>0.04960953094016132</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>143</v>
@@ -3067,19 +3067,19 @@
         <v>140693</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>119181</v>
+        <v>119064</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>166670</v>
+        <v>168496</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.04209042823487459</v>
+        <v>0.04209042823487458</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03565483416278166</v>
+        <v>0.03561985240325086</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04986173229408273</v>
+        <v>0.05040801700123158</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>19727</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11635</v>
+        <v>11980</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30453</v>
+        <v>31335</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01048970542087131</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006186821983106577</v>
+        <v>0.006370221046040065</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01619357560735974</v>
+        <v>0.01666263103292648</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3117,19 +3117,19 @@
         <v>12248</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6552</v>
+        <v>6101</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23712</v>
+        <v>22112</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.008377379562957914</v>
+        <v>0.008377379562957912</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.004481168635394517</v>
+        <v>0.00417269066126359</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01621834053588941</v>
+        <v>0.01512406154791002</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>28</v>
@@ -3138,19 +3138,19 @@
         <v>31975</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>21292</v>
+        <v>22358</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>45305</v>
+        <v>49585</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.009565778483949681</v>
+        <v>0.009565778483949679</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006369902848004337</v>
+        <v>0.006688742032514473</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01355361794909531</v>
+        <v>0.0148340293264262</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>1377891</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1332996</v>
+        <v>1332408</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1420094</v>
+        <v>1421563</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7326973386426487</v>
+        <v>0.7326973386426485</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7088246338797385</v>
+        <v>0.7085117455582725</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7551391566717335</v>
+        <v>0.7559199641361724</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1217</v>
@@ -3188,19 +3188,19 @@
         <v>895872</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>860006</v>
+        <v>861546</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>929944</v>
+        <v>929922</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6127459977478413</v>
+        <v>0.6127459977478412</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.588215165091533</v>
+        <v>0.5892681252556572</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6360498164482583</v>
+        <v>0.6360349413827039</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2419</v>
@@ -3209,19 +3209,19 @@
         <v>2273763</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2219633</v>
+        <v>2222520</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2326517</v>
+        <v>2333416</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.6802308716165534</v>
+        <v>0.6802308716165535</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6640370026487</v>
+        <v>0.6649008849704404</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6960130702094396</v>
+        <v>0.6980770290735804</v>
       </c>
     </row>
     <row r="39">
@@ -3238,19 +3238,19 @@
         <v>153368</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>127738</v>
+        <v>129732</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>181530</v>
+        <v>180705</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08155407594581204</v>
+        <v>0.08155407594581203</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06792518861383352</v>
+        <v>0.06898525964896424</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09652912219596638</v>
+        <v>0.09609054767300867</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>201</v>
@@ -3259,19 +3259,19 @@
         <v>167423</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>143919</v>
+        <v>147230</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>192158</v>
+        <v>191443</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.1145113027437381</v>
+        <v>0.114511302743738</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.09843559242248449</v>
+        <v>0.1007004384609426</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1314294000390604</v>
+        <v>0.1309408122234421</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>328</v>
@@ -3280,19 +3280,19 @@
         <v>320791</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>283443</v>
+        <v>286514</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>356930</v>
+        <v>356529</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.09596949840100008</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08479638583871656</v>
+        <v>0.085714989492953</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1067812042829587</v>
+        <v>0.1066612369878684</v>
       </c>
     </row>
     <row r="40">
